--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/ep00.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/ep00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Stage1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BD3AAB-165C-ED43-93E1-F1B10C041126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF62A3F-76CB-4675-B10B-9AC14DCA6BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="ttest" sheetId="20" r:id="rId1"/>
@@ -52,6 +52,18 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">0: NONE
+1: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">대화
 </t>
         </r>
         <r>
@@ -62,7 +74,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">1: </t>
+          <t xml:space="preserve">2: </t>
         </r>
         <r>
           <rPr>
@@ -73,7 +85,18 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>대화</t>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (1, 2, 3)
+3: </t>
         </r>
         <r>
           <rPr>
@@ -84,7 +107,28 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">종료
 </t>
         </r>
         <r>
@@ -95,7 +139,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">2: </t>
+          <t xml:space="preserve">4: </t>
         </r>
         <r>
           <rPr>
@@ -106,7 +150,7 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>선택지</t>
+          <t>맵</t>
         </r>
         <r>
           <rPr>
@@ -116,8 +160,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> (1, 2, 3)
-</t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동
+5: Save
+6</t>
         </r>
         <r>
           <rPr>
@@ -127,7 +183,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">3: </t>
+          <t xml:space="preserve">: </t>
         </r>
         <r>
           <rPr>
@@ -135,10 +191,10 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
         </r>
         <r>
           <rPr>
@@ -156,128 +212,169 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>종료</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등장</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{8DE5A993-FCE7-4E29-92B9-4DF4B536510E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dubby = -1
+Keep = 0 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이전</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">4: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맵</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>) (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+None = 1 (Never)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{D4DA6F94-E946-4683-A368-0CC02ABB4F1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Default = -1
+Keep = 0 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이전</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이동</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>), (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">5: Save
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">5: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>캐릭터</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>등장</t>
+          <t>)
+Action1 = 1
+...</t>
         </r>
       </text>
     </comment>
@@ -539,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -731,15 +828,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum:CharacterType:Default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:Expression:Default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right,Appear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right,Disappear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:CharacterType:Keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:Expression:Keep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +859,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +904,29 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1150,11 +1282,11 @@
       <selection activeCell="B10" sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.6640625" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.625" customWidth="1"/>
+    <col min="5" max="5" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1246,15 +1378,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -1295,10 +1427,10 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -1406,14 +1538,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1423,23 +1552,17 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1454,31 +1577,22 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>-1</v>
-      </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
       <c r="C15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>-1</v>
       </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1488,48 +1602,57 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
       <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
       <c r="C20">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1537,56 +1660,50 @@
     </row>
     <row r="22" spans="1:6">
       <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C22">
+      <c r="C25">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="C23">
+    <row r="26" spans="1:6">
+      <c r="C26">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1594,10 +1711,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1605,10 +1722,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1616,10 +1733,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1627,87 +1744,120 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>18</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>28</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
         <v>16</v>
       </c>
-      <c r="C33">
+      <c r="C36">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" t="s">
         <v>31</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
         <v>32</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
         <v>17</v>
       </c>
-      <c r="C38">
+      <c r="C41">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" t="s">
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
         <v>29</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" t="s">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="C40">
+      <c r="C43">
         <v>1</v>
       </c>
     </row>
